--- a/data/financial_statements/sofp/PEAK.xlsx
+++ b/data/financial_statements/sofp/PEAK.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -110,9 +227,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -165,12 +279,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -475,144 +586,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>167000000</v>
+        <v>166952000</v>
       </c>
       <c r="C2">
-        <v>128000000</v>
+        <v>127828000</v>
       </c>
       <c r="D2">
-        <v>141000000</v>
+        <v>141169000</v>
       </c>
       <c r="E2">
-        <v>212000000</v>
+        <v>211741000</v>
       </c>
       <c r="F2">
-        <v>255000000</v>
+        <v>254798000</v>
       </c>
       <c r="G2">
         <v>225975000</v>
@@ -718,8 +829,8 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
         <v>53964000</v>
@@ -840,8 +951,8 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
         <v>604907000</v>
@@ -962,23 +1073,23 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>232000000</v>
+        <v>12878060000</v>
       </c>
       <c r="C5">
-        <v>233000000</v>
+        <v>12873630000</v>
       </c>
       <c r="D5">
-        <v>232000000</v>
+        <v>12839150000</v>
       </c>
       <c r="E5">
-        <v>234000000</v>
+        <v>12667430000</v>
       </c>
       <c r="F5">
-        <v>219000000</v>
+        <v>12076640000</v>
       </c>
       <c r="G5">
         <v>11603990000</v>
@@ -1084,23 +1195,23 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
-        <v>444000000</v>
+        <v>444215000</v>
       </c>
       <c r="C6">
-        <v>471000000</v>
+        <v>470865000</v>
       </c>
       <c r="D6">
-        <v>497000000</v>
+        <v>497104000</v>
       </c>
       <c r="E6">
-        <v>538000000</v>
+        <v>519760000</v>
       </c>
       <c r="F6">
-        <v>520000000</v>
+        <v>520335000</v>
       </c>
       <c r="G6">
         <v>511612000</v>
@@ -1206,23 +1317,23 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
-        <v>771000000</v>
+        <v>1502622000</v>
       </c>
       <c r="C7">
-        <v>747000000</v>
+        <v>1151189000</v>
       </c>
       <c r="D7">
-        <v>708000000</v>
+        <v>1113514000</v>
       </c>
       <c r="E7">
-        <v>600000000</v>
+        <v>1160145000</v>
       </c>
       <c r="F7">
-        <v>783000000</v>
+        <v>1217448000</v>
       </c>
       <c r="G7">
         <v>1304597000</v>
@@ -1328,8 +1439,8 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
         <v>14824890000</v>
@@ -1450,23 +1561,23 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
-        <v>15662000000</v>
+        <v>15661960000</v>
       </c>
       <c r="C9">
-        <v>15318000000</v>
+        <v>15318200000</v>
       </c>
       <c r="D9">
-        <v>15287000000</v>
+        <v>15287250000</v>
       </c>
       <c r="E9">
-        <v>15258000000</v>
+        <v>15257520000</v>
       </c>
       <c r="F9">
-        <v>14744000000</v>
+        <v>14743500000</v>
       </c>
       <c r="G9">
         <v>14332370000</v>
@@ -1572,8 +1683,8 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
         <v>732895000</v>
@@ -1694,8 +1805,8 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
         <v>1000000</v>
@@ -1735,8 +1846,8 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
         <v>732895000</v>
@@ -1857,23 +1968,23 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
-        <v>6953000000</v>
+        <v>6590971000</v>
       </c>
       <c r="C13">
-        <v>6822000000</v>
+        <v>6453750000</v>
       </c>
       <c r="D13">
-        <v>6711000000</v>
+        <v>6335582000</v>
       </c>
       <c r="E13">
-        <v>6547000000</v>
+        <v>6169989000</v>
       </c>
       <c r="F13">
-        <v>5865000000</v>
+        <v>5538404000</v>
       </c>
       <c r="G13">
         <v>5038376000</v>
@@ -1979,8 +2090,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
         <v>835000000</v>
@@ -2020,8 +2131,8 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="E15">
         <v>-93000000</v>
@@ -2031,16 +2142,16 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="F16">
         <v>119591000</v>
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
         <v>127583000</v>
@@ -2062,23 +2173,23 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
-        <v>746000000</v>
+        <v>1010928000</v>
       </c>
       <c r="C18">
-        <v>723000000</v>
+        <v>1000245000</v>
       </c>
       <c r="D18">
-        <v>710000000</v>
+        <v>1006695000</v>
       </c>
       <c r="E18">
-        <v>770000000</v>
+        <v>981495000</v>
       </c>
       <c r="F18">
-        <v>749000000</v>
+        <v>945327000</v>
       </c>
       <c r="G18">
         <v>982075000</v>
@@ -2184,8 +2295,8 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
         <v>7729482000</v>
@@ -2306,23 +2417,23 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>8536000000</v>
+        <v>8663190000</v>
       </c>
       <c r="C20">
-        <v>8362000000</v>
+        <v>8477815000</v>
       </c>
       <c r="D20">
-        <v>8242000000</v>
+        <v>8339528000</v>
       </c>
       <c r="E20">
-        <v>8111000000</v>
+        <v>8198759000</v>
       </c>
       <c r="F20">
-        <v>7405000000</v>
+        <v>7524703000</v>
       </c>
       <c r="G20">
         <v>6898641000</v>
@@ -2428,8 +2539,8 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
         <v>10014710000</v>
@@ -2550,23 +2661,23 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
-        <v>538000000</v>
+        <v>537534000</v>
       </c>
       <c r="C22">
-        <v>540000000</v>
+        <v>539580000</v>
       </c>
       <c r="D22">
-        <v>540000000</v>
+        <v>539524000</v>
       </c>
       <c r="E22">
-        <v>539000000</v>
+        <v>539097000</v>
       </c>
       <c r="F22">
-        <v>539000000</v>
+        <v>539066000</v>
       </c>
       <c r="G22">
         <v>538955000</v>
@@ -2672,23 +2783,23 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
-        <v>-4115000000</v>
+        <v>-4114806000</v>
       </c>
       <c r="C23">
-        <v>-4307000000</v>
+        <v>-4306762000</v>
       </c>
       <c r="D23">
-        <v>-4213000000</v>
+        <v>-4212941000</v>
       </c>
       <c r="E23">
-        <v>-4121000000</v>
+        <v>-4120774000</v>
       </c>
       <c r="F23">
-        <v>-3988000000</v>
+        <v>-3987537000</v>
       </c>
       <c r="G23">
         <v>-3880253000</v>
@@ -2794,23 +2905,23 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
-        <v>6467000000</v>
+        <v>6998766000</v>
       </c>
       <c r="C24">
-        <v>6305000000</v>
+        <v>6840388000</v>
       </c>
       <c r="D24">
-        <v>6408000000</v>
+        <v>6947722000</v>
       </c>
       <c r="E24">
-        <v>6515000000</v>
+        <v>7058760000</v>
       </c>
       <c r="F24">
-        <v>6670000000</v>
+        <v>7218798000</v>
       </c>
       <c r="G24">
         <v>7433729000</v>
@@ -2916,23 +3027,23 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
-        <v>6467000000</v>
+        <v>6998766000</v>
       </c>
       <c r="C25">
-        <v>6305000000</v>
+        <v>6840388000</v>
       </c>
       <c r="D25">
-        <v>6408000000</v>
+        <v>6947722000</v>
       </c>
       <c r="E25">
-        <v>6515000000</v>
+        <v>7058760000</v>
       </c>
       <c r="F25">
-        <v>6670000000</v>
+        <v>7218797000</v>
       </c>
       <c r="G25">
         <v>7433729000</v>
@@ -3038,8 +3149,8 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
         <v>15661960000</v>
@@ -3160,8 +3271,8 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
         <v>537534000</v>
@@ -3282,8 +3393,8 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
         <v>6554551000</v>
@@ -3404,23 +3515,23 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
-        <v>6787000000</v>
+        <v>6425019000</v>
       </c>
       <c r="C29">
-        <v>6697000000</v>
+        <v>6328922000</v>
       </c>
       <c r="D29">
-        <v>6574000000</v>
+        <v>6198413000</v>
       </c>
       <c r="E29">
-        <v>6340000000</v>
+        <v>5963248000</v>
       </c>
       <c r="F29">
-        <v>5619000000</v>
+        <v>5292606000</v>
       </c>
       <c r="G29">
         <v>4822401000</v>
@@ -3526,23 +3637,23 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
-        <v>6954000000</v>
+        <v>6591971000</v>
       </c>
       <c r="C30">
-        <v>6825000000</v>
+        <v>6456750000</v>
       </c>
       <c r="D30">
-        <v>6715000000</v>
+        <v>6339582000</v>
       </c>
       <c r="E30">
-        <v>6552000000</v>
+        <v>6174989000</v>
       </c>
       <c r="F30">
-        <v>5874000000</v>
+        <v>5547404000</v>
       </c>
       <c r="G30">
         <v>5048376000</v>
